--- a/biology/Médecine/Jean-Baptiste-Maximien_Parchappe_de_Vinay/Jean-Baptiste-Maximien_Parchappe_de_Vinay.xlsx
+++ b/biology/Médecine/Jean-Baptiste-Maximien_Parchappe_de_Vinay/Jean-Baptiste-Maximien_Parchappe_de_Vinay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Baptiste-Maximien Parchappe de Vinay est un psychiatre français né le 21 octobre 1800 à Épernay et mort le 12 mars 1866 en son domicile dans le 9e arrondissement de Paris[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Baptiste-Maximien Parchappe de Vinay est un psychiatre français né le 21 octobre 1800 à Épernay et mort le 12 mars 1866 en son domicile dans le 9e arrondissement de Paris.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Parchappe de Vinay étudia la médecine à Rouen et Paris, obtenant son doctorat en 1827. En 1833, il est professeur de physiologie à l'école de médecine de Rouen. De 1835 à 1848, il pratiqua la psychiatrie à la Maison de Saint-Yon à Rouen. En 1848, il est nommé inspecteur-général des prisons de santé et asiles pour aliénés.
 Avec Guillaume Ferrus (1784–1861) et Jacques-Étienne Belhomme (1800–1880), il est une figure importante de la psychiatrie française du XIXe siècle en regard aux médecins qui pensaient que la cause des maladies mentales pouvait être localisée anatomiquement. Il a effectué de nombreuses recherches sur la paralysie générale du fou. À Saint-Yon, il publia une étude pionnière sur les statistiques psychiatriques intitulée Recherches statistiques sur les causes de l'aliénation mentale.
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>avec Achille-Louis Foville, De la nature, du siège et du traitement du choléra-morbus, Rouen, Émile Périaux, 1832, 64 p. (lire en ligne)
 Recherches statistiques sur les causes de l’aliénation mentale, Rouen, D. Brière, 1839
@@ -582,9 +598,11 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Officier de la Légion d'honneur (décret du 11 août 1855)[2]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Officier de la Légion d'honneur (décret du 11 août 1855)</t>
         </is>
       </c>
     </row>
